--- a/GestorReceitas/outubro/RecebimentosNumerario.xlsx
+++ b/GestorReceitas/outubro/RecebimentosNumerario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Outubro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99BE940-A673-4873-8D29-BA31C63B8C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFD855-38F7-4C8D-BD44-5AC9229AE768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
     <t>2€ Caf 16/10</t>
   </si>
   <si>
-    <t>2€ caf 17/10</t>
+    <t>4€ caf 17/10</t>
   </si>
 </sst>
 </file>
@@ -894,8 +894,8 @@
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P128" sqref="P128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,7 +950,7 @@
         <v>45579</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>15</v>

--- a/GestorReceitas/outubro/RecebimentosNumerario.xlsx
+++ b/GestorReceitas/outubro/RecebimentosNumerario.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\Outubro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pessoal\AssociacaodePais\School\GestorReceitas\outubro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFD855-38F7-4C8D-BD44-5AC9229AE768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F438BF-1027-4718-B907-4BC5D8658BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecebimentosNumerário" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="169">
   <si>
     <t>Nome</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>4€ caf 17/10</t>
+  </si>
+  <si>
+    <t>77,5 ano anterior</t>
   </si>
 </sst>
 </file>
@@ -894,8 +897,8 @@
   <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P128" sqref="P128"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,6 +2146,12 @@
       <c r="F100">
         <v>7.5</v>
       </c>
+      <c r="G100">
+        <v>77.5</v>
+      </c>
+      <c r="I100" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
